--- a/Projekt 2/Aufgabe3/Statistik.xlsx
+++ b/Projekt 2/Aufgabe3/Statistik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>l</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>T(GPU)</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
 </sst>
 </file>
@@ -599,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:V13"/>
+  <dimension ref="C3:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G3">
         <v>2</v>
       </c>
@@ -626,8 +629,11 @@
       <c r="V3" t="s">
         <v>19</v>
       </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>1</v>
       </c>
@@ -762,8 +768,11 @@
       <c r="V5">
         <v>1.139</v>
       </c>
+      <c r="W5">
+        <v>1.157</v>
+      </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C6">
         <v>2</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="V6">
         <v>1.147</v>
       </c>
+      <c r="W6">
+        <v>1.149</v>
+      </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C7">
         <v>3</v>
       </c>
@@ -910,8 +922,11 @@
       <c r="V7">
         <v>1.147</v>
       </c>
+      <c r="W7">
+        <v>1.161</v>
+      </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C8">
         <v>4</v>
       </c>
@@ -984,8 +999,11 @@
       <c r="V8">
         <v>1.1479999999999999</v>
       </c>
+      <c r="W8">
+        <v>1.1679999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>5</v>
       </c>
@@ -1058,8 +1076,11 @@
       <c r="V9">
         <v>1.1479999999999999</v>
       </c>
+      <c r="W9">
+        <v>1.196</v>
+      </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C10">
         <v>6</v>
       </c>
@@ -1132,8 +1153,11 @@
       <c r="V10">
         <v>1.2470000000000001</v>
       </c>
+      <c r="W10">
+        <v>1.262</v>
+      </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C11">
         <v>7</v>
       </c>
@@ -1206,8 +1230,11 @@
       <c r="V11">
         <v>1.4890000000000001</v>
       </c>
+      <c r="W11">
+        <v>1.544</v>
+      </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C12">
         <v>8</v>
       </c>
@@ -1280,8 +1307,11 @@
       <c r="V12">
         <v>2.589</v>
       </c>
+      <c r="W12">
+        <v>3.27</v>
+      </c>
     </row>
-    <row r="13" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13">
         <v>9</v>
       </c>
@@ -1353,6 +1383,9 @@
       </c>
       <c r="V13">
         <v>12.131</v>
+      </c>
+      <c r="W13">
+        <v>20.6</v>
       </c>
     </row>
   </sheetData>
